--- a/src/test/java/resources/ProjectXdata.xlsx
+++ b/src/test/java/resources/ProjectXdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Project X\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvenkatesh\IdeaProjects\ApiWithReport\src\test\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C866DBE-B06A-4F22-996C-4E86532577D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821141F9-8220-41CF-B017-EE8AE5C31352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MembershipData" sheetId="2" r:id="rId1"/>
@@ -24,11 +24,12 @@
     <sheet name="Vat" sheetId="5" r:id="rId9"/>
     <sheet name="Country" sheetId="6" r:id="rId10"/>
     <sheet name="ContactsWithActiveMemberships" sheetId="7" r:id="rId11"/>
-    <sheet name="GiftAidBatch" sheetId="8" r:id="rId12"/>
+    <sheet name="MembershipTypes" sheetId="13" r:id="rId12"/>
+    <sheet name="GiftAidBatch" sheetId="8" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6579" uniqueCount="5916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6659" uniqueCount="5936">
   <si>
     <t>0c92d6ca-9fbf-e511-80cf-005056bf2f1c</t>
   </si>
@@ -17796,6 +17797,66 @@
   </si>
   <si>
     <t>CPDdiary</t>
+  </si>
+  <si>
+    <t>Allow Multiple</t>
+  </si>
+  <si>
+    <t>Default Length (Months)</t>
+  </si>
+  <si>
+    <t>Default Length (Years)</t>
+  </si>
+  <si>
+    <t>Membership Term</t>
+  </si>
+  <si>
+    <t>Primary Membership</t>
+  </si>
+  <si>
+    <t>Renewal Date (Month)</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Fixed Length</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Fixed Renewal Date</t>
+  </si>
+  <si>
+    <t>7f5bd9fd-e736-ea11-a813-000d3a7ed518</t>
+  </si>
+  <si>
+    <t>GV New Individual Membership Type</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>e28f2470-c033-ea11-a813-000d3a7ed588</t>
+  </si>
+  <si>
+    <t>Individual Membership 1 (Fixed length)</t>
+  </si>
+  <si>
+    <t>f8665f9d-441c-e511-80c7-005056bf2f1c</t>
+  </si>
+  <si>
+    <t>Individual Subscription (Fixed Renewal)</t>
+  </si>
+  <si>
+    <t>25420a09-f032-ea11-a813-000d3a7ed588</t>
+  </si>
+  <si>
+    <t>Trillium Membership</t>
   </si>
 </sst>
 </file>
@@ -17984,9 +18045,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -17997,6 +18055,9 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18047,7 +18108,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="All Gift Aid Batches"/>
+      <sheetName val="Active Methods of Payment"/>
       <sheetName val="hiddenSheet"/>
     </sheetNames>
     <sheetDataSet>
@@ -18062,7 +18123,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Active Methods of Payment"/>
+      <sheetName val="All Gift Aid Batches"/>
       <sheetName val="hiddenSheet"/>
     </sheetNames>
     <sheetDataSet>
@@ -18152,6 +18213,26 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{7636B5CA-A558-4972-89AE-2432C6167DB5}" name="Table18" displayName="Table18" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{AFD68386-A93D-4E14-BE28-39601687BEA0}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{EA8D849E-D12D-40D5-859E-DDC23825ED2C}" name="(Do Not Modify) Membership Type"/>
+    <tableColumn id="4" xr3:uid="{E6CACA39-463C-4DE1-B85E-646E59280349}" name="Name"/>
+    <tableColumn id="5" xr3:uid="{1B4EDE8B-F05B-4290-A52B-1A289D4A3EEF}" name="Allow Multiple"/>
+    <tableColumn id="6" xr3:uid="{010F5C44-BA10-4943-A9B2-514DB60D8218}" name="Default Length (Months)"/>
+    <tableColumn id="7" xr3:uid="{C55E8AC3-5E85-4CFE-9768-D93687A8F9AB}" name="Default Length (Years)"/>
+    <tableColumn id="8" xr3:uid="{B9D2895C-4A10-4F2E-B7CF-EB028683C58D}" name="Membership Term"/>
+    <tableColumn id="9" xr3:uid="{0F6E5F2F-2CE7-4214-8971-5EE20550E618}" name="Primary Membership"/>
+    <tableColumn id="10" xr3:uid="{F08EBA61-AC83-47EF-A203-26DFA3256018}" name="Renewal Date (Month)"/>
+    <tableColumn id="11" xr3:uid="{7250F79E-4B22-459F-ADC8-A9E272338826}" name="Type"/>
+    <tableColumn id="12" xr3:uid="{7BE5E4B7-E192-41E2-9C34-6CF5F3280DFA}" name="VAT"/>
+    <tableColumn id="13" xr3:uid="{24A9880A-BDD5-4DA6-9D0C-794E20CFD850}" name="Created On"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{99BE5A92-E56C-48B4-B069-CBF83F50D00F}" name="Table15" displayName="Table15" ref="A1:G46" totalsRowShown="0">
   <autoFilter ref="A1:G46" xr:uid="{727B164D-FA3D-4A04-A645-068D2CF93AC6}"/>
   <tableColumns count="7">
@@ -18483,21 +18564,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>675</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="27"/>
+      <c r="D1" s="27" t="s">
         <v>676</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -18868,7 +18949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B370D8-2B0C-4232-9D7E-8314D8C69A2B}">
   <dimension ref="A1:B248"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -20876,7 +20957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A76D57E-EEEC-45D7-A6D3-CEDB7D4128A0}">
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
@@ -25812,6 +25893,424 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C75A8BE-6873-44F2-85D6-8C7061964E7D}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5917</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5918</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5919</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5920</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5921</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5922</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5923</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="22" t="s">
+        <v>5925</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K2" s="24">
+        <v>43066.707060185203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="22" t="s">
+        <v>5926</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="22" t="s">
+        <v>5925</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K3" s="24">
+        <v>43066.707060185203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25">
+        <v>1</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="22" t="s">
+        <v>5925</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K4" s="24">
+        <v>43066.707060185203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5927</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>5928</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D5" s="25">
+        <v>1</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K5" s="24">
+        <v>43844.672118055598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
+        <v>1</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K6" s="24">
+        <v>43066.707071759301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>5926</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H7" s="25">
+        <v>11</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K7" s="24">
+        <v>43066.707060185203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5930</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>5931</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25">
+        <v>1</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K8" s="24">
+        <v>43840.657719907402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K9" s="24">
+        <v>43203.449768518498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5932</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>5933</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25">
+        <v>1</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>5926</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>5862</v>
+      </c>
+      <c r="H10" s="25">
+        <v>1</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>2940</v>
+      </c>
+      <c r="K10" s="24">
+        <v>43066.707060185203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5934</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>5935</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="22" t="s">
+        <v>5926</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>5861</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="22" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24">
+        <v>43839.621724536999</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Date" error="Created On must be in the correct date and time format." promptTitle="Date and time" prompt=" " sqref="K2:K11" xr:uid="{A30002EC-E986-44D5-BDC1-BB5E7FDFE572}">
+      <formula1>1</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error=" " promptTitle="Lookup" prompt="This VAT record must already exist in Microsoft Dynamics 365 or in this source file." sqref="J2:J11" xr:uid="{3D5E0243-9F0B-4AB2-9730-B67AFC81098E}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value beyond range" error="Renewal Date (Month) must be a whole number from 0 through 12." promptTitle="Whole number" prompt="Minimum Value: 0._x000d__x000a_Maximum Value: 12._x000d__x000a_  " sqref="H2:H11" xr:uid="{AD4663B2-5F30-4BCB-AFB3-64467F872AC3}">
+      <formula1>0</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value beyond range" error="Default Length (Years) must be a whole number from 0 through 100." promptTitle="Whole number" prompt="Minimum Value: 0._x000d__x000a_Maximum Value: 100._x000d__x000a_  " sqref="E2:E11" xr:uid="{69506DA6-C60B-4FB5-B002-702EFC3ABF9F}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value beyond range" error="Default Length (Months) must be a whole number from 0 through 1000." promptTitle="Whole number" prompt="Minimum Value: 0._x000d__x000a_Maximum Value: 1000._x000d__x000a_  " sqref="D2:D11" xr:uid="{46A7DA0F-1D4B-40B8-9B4E-624FD89DE3E6}">
+      <formula1>0</formula1>
+      <formula2>1000</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Length Exceeded" error="This value must be less than or equal to 100 characters long." promptTitle="Text (required)" prompt="Maximum Length: 100 characters." sqref="B2:B11" xr:uid="{FD216D80-7648-4B0C-9B6F-F05828E90687}">
+      <formula1>100</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Type must be selected from the drop-down list." promptTitle="Option set (required)" prompt="Select a value from the drop-down list." xr:uid="{9E622250-5FD4-49F3-8C16-6D8E3DC42BE8}">
+          <x14:formula1>
+            <xm:f>'[Active Membership Types 27-02-2020 16-48-12.xlsx]hiddenSheet'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2:I11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Primary Membership must be selected from the drop-down list." promptTitle="Option set" prompt="Select a value from the drop-down list." xr:uid="{7D11A14A-BDDD-48C6-BCC6-965A38E0F6D6}">
+          <x14:formula1>
+            <xm:f>'[Active Membership Types 27-02-2020 16-48-12.xlsx]hiddenSheet'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Membership Term must be selected from the drop-down list." promptTitle="Option set (required)" prompt="Select a value from the drop-down list." xr:uid="{539AB9B2-0298-4135-8B1A-70E98AAE33B3}">
+          <x14:formula1>
+            <xm:f>'[Active Membership Types 27-02-2020 16-48-12.xlsx]hiddenSheet'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="List Value" error="Allow Multiple must be selected from the drop-down list." promptTitle="Option set (required)" prompt="Select a value from the drop-down list." xr:uid="{953AA21D-11F3-4776-A053-97E1C568DF6B}">
+          <x14:formula1>
+            <xm:f>'[Active Membership Types 27-02-2020 16-48-12.xlsx]hiddenSheet'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0C25F5-7CAD-4FEB-B67C-534515DECBF9}">
   <dimension ref="A1:G46"/>
   <sheetViews>
@@ -25848,18 +26347,18 @@
       <c r="A2" t="s">
         <v>5759</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>5760</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>5761</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G2" s="25">
+      <c r="G2" s="24">
         <v>43875.386597222197</v>
       </c>
     </row>
@@ -25867,20 +26366,20 @@
       <c r="A3" t="s">
         <v>5763</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>4706</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>4706</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>43313</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="24">
         <v>43692.609155092599</v>
       </c>
     </row>
@@ -25888,18 +26387,18 @@
       <c r="A4" t="s">
         <v>5764</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>5765</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>5766</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="23" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="24">
         <v>43880.522858796299</v>
       </c>
     </row>
@@ -25907,18 +26406,18 @@
       <c r="A5" t="s">
         <v>5767</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>5768</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>5769</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="23" t="s">
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="24">
         <v>43880.4298263889</v>
       </c>
     </row>
@@ -25926,18 +26425,18 @@
       <c r="A6" t="s">
         <v>5770</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>5771</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>5772</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="23" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="24">
         <v>43875.614560185197</v>
       </c>
     </row>
@@ -25945,20 +26444,20 @@
       <c r="A7" t="s">
         <v>5773</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>5774</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>4706</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="23">
         <v>43688</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="23" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="24">
         <v>43696.379699074103</v>
       </c>
     </row>
@@ -25966,20 +26465,20 @@
       <c r="A8" t="s">
         <v>5775</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>5776</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>5777</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="23">
         <v>43707</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="24">
         <v>43692.607870370397</v>
       </c>
     </row>
@@ -25987,22 +26486,22 @@
       <c r="A9" t="s">
         <v>5778</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>5779</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>5780</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="23">
         <v>43101</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>43465</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="24">
         <v>43658.508032407401</v>
       </c>
     </row>
@@ -26010,20 +26509,20 @@
       <c r="A10" t="s">
         <v>5781</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>5782</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>5783</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>42005</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <v>43840.474513888897</v>
       </c>
     </row>
@@ -26031,18 +26530,18 @@
       <c r="A11" t="s">
         <v>5785</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>4814</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>43693</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <v>43693.602581018502</v>
       </c>
     </row>
@@ -26050,18 +26549,18 @@
       <c r="A12" t="s">
         <v>5786</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
         <v>5787</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>42217</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="23" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <v>43682.433680555601</v>
       </c>
     </row>
@@ -26069,18 +26568,18 @@
       <c r="A13" t="s">
         <v>5788</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22" t="s">
         <v>5789</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="23">
         <v>42739</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="23" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <v>43705.699884259302</v>
       </c>
     </row>
@@ -26088,18 +26587,18 @@
       <c r="A14" s="1" t="s">
         <v>5790</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22" t="s">
         <v>5791</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>42370</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="23" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <v>43707.4773263889</v>
       </c>
     </row>
@@ -26107,14 +26606,14 @@
       <c r="A15" t="s">
         <v>5792</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="23" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <v>43707.477488425902</v>
       </c>
     </row>
@@ -26122,14 +26621,14 @@
       <c r="A16" t="s">
         <v>5793</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="23" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <v>43707.498865740701</v>
       </c>
     </row>
@@ -26137,14 +26636,14 @@
       <c r="A17" t="s">
         <v>5795</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="23" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <v>43707.506296296298</v>
       </c>
     </row>
@@ -26152,18 +26651,18 @@
       <c r="A18" t="s">
         <v>5796</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22" t="s">
         <v>5797</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="23">
         <v>42737</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="23" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <v>43711.442384259302</v>
       </c>
     </row>
@@ -26171,18 +26670,18 @@
       <c r="A19" t="s">
         <v>5798</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>5799</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <v>43815</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="23" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <v>43816.618842592601</v>
       </c>
     </row>
@@ -26190,18 +26689,18 @@
       <c r="A20" t="s">
         <v>5800</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22" t="s">
         <v>5801</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="23">
         <v>43816</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="23" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <v>43816.706967592603</v>
       </c>
     </row>
@@ -26209,14 +26708,14 @@
       <c r="A21" t="s">
         <v>5802</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="23" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <v>43707.498854166697</v>
       </c>
     </row>
@@ -26224,14 +26723,14 @@
       <c r="A22" t="s">
         <v>5803</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="23" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <v>43707.509826388901</v>
       </c>
     </row>
@@ -26239,16 +26738,16 @@
       <c r="A23" t="s">
         <v>5804</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22" t="s">
         <v>5805</v>
       </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <v>43858.6819328704</v>
       </c>
     </row>
@@ -26256,16 +26755,16 @@
       <c r="A24" t="s">
         <v>5806</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
         <v>5807</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <v>43859.351574074099</v>
       </c>
     </row>
@@ -26273,18 +26772,18 @@
       <c r="A25" t="s">
         <v>5808</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
         <v>5809</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="23">
         <v>42369</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <v>43840.430370370399</v>
       </c>
     </row>
@@ -26292,18 +26791,18 @@
       <c r="A26" t="s">
         <v>5810</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
         <v>5811</v>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="23">
         <v>42005</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="23" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="24">
         <v>43840.472442129598</v>
       </c>
     </row>
@@ -26311,18 +26810,18 @@
       <c r="A27" t="s">
         <v>5812</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
         <v>5813</v>
       </c>
-      <c r="D27" s="24">
+      <c r="D27" s="23">
         <v>42005</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="23" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="24">
         <v>43840.482812499999</v>
       </c>
     </row>
@@ -26330,14 +26829,14 @@
       <c r="A28" t="s">
         <v>5814</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="24">
         <v>43707.444432870398</v>
       </c>
     </row>
@@ -26345,14 +26844,14 @@
       <c r="A29" t="s">
         <v>5815</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="23" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="24">
         <v>43707.506296296298</v>
       </c>
     </row>
@@ -26360,14 +26859,14 @@
       <c r="A30" t="s">
         <v>5816</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="23" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="22" t="s">
         <v>5794</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="24">
         <v>43707.509826388901</v>
       </c>
     </row>
@@ -26375,18 +26874,18 @@
       <c r="A31" t="s">
         <v>5817</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
         <v>5818</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="23">
         <v>43748</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="23" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="24">
         <v>43745.628541666701</v>
       </c>
     </row>
@@ -26394,16 +26893,16 @@
       <c r="A32" t="s">
         <v>5819</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23" t="s">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22" t="s">
         <v>5820</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="23" t="s">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="24">
         <v>43858.722962963002</v>
       </c>
     </row>
@@ -26411,16 +26910,16 @@
       <c r="A33" t="s">
         <v>5821</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>5822</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="23" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="24">
         <v>43858.749409722201</v>
       </c>
     </row>
@@ -26428,16 +26927,16 @@
       <c r="A34" t="s">
         <v>5823</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22" t="s">
         <v>5824</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="23" t="s">
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="24">
         <v>43874.565902777802</v>
       </c>
     </row>
@@ -26445,14 +26944,14 @@
       <c r="A35" t="s">
         <v>5825</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="23" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="24">
         <v>43707.477488425902</v>
       </c>
     </row>
@@ -26460,18 +26959,18 @@
       <c r="A36" t="s">
         <v>5826</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23" t="s">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22" t="s">
         <v>5827</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <v>43739</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="22" t="s">
         <v>5828</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="24">
         <v>43710.375034722201</v>
       </c>
     </row>
@@ -26479,18 +26978,18 @@
       <c r="A37" t="s">
         <v>5829</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
         <v>5830</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="23">
         <v>42737</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="23" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="24">
         <v>43710.470949074101</v>
       </c>
     </row>
@@ -26498,18 +26997,18 @@
       <c r="A38" t="s">
         <v>5831</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23" t="s">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22" t="s">
         <v>5832</v>
       </c>
-      <c r="D38" s="24">
+      <c r="D38" s="23">
         <v>43739</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="23" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="24">
         <v>43747.696238425902</v>
       </c>
     </row>
@@ -26517,18 +27016,18 @@
       <c r="A39" t="s">
         <v>5833</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23" t="s">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22" t="s">
         <v>5834</v>
       </c>
-      <c r="D39" s="24">
+      <c r="D39" s="23">
         <v>43746</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="23" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="24">
         <v>43748.618182870399</v>
       </c>
     </row>
@@ -26536,18 +27035,18 @@
       <c r="A40" t="s">
         <v>5835</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22" t="s">
         <v>5836</v>
       </c>
-      <c r="D40" s="24">
+      <c r="D40" s="23">
         <v>43746</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="23" t="s">
+      <c r="E40" s="23"/>
+      <c r="F40" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="24">
         <v>43748.635613425897</v>
       </c>
     </row>
@@ -26555,18 +27054,18 @@
       <c r="A41" t="s">
         <v>5837</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22" t="s">
         <v>5838</v>
       </c>
-      <c r="D41" s="24">
+      <c r="D41" s="23">
         <v>43770</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="23" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="24">
         <v>43781.496354166702</v>
       </c>
     </row>
@@ -26574,18 +27073,18 @@
       <c r="A42" t="s">
         <v>5839</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23" t="s">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22" t="s">
         <v>5840</v>
       </c>
-      <c r="D42" s="24">
+      <c r="D42" s="23">
         <v>43779</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="23" t="s">
+      <c r="E42" s="23"/>
+      <c r="F42" s="22" t="s">
         <v>5784</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="24">
         <v>43781.506921296299</v>
       </c>
     </row>
@@ -26593,18 +27092,18 @@
       <c r="A43" t="s">
         <v>5841</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23" t="s">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22" t="s">
         <v>5842</v>
       </c>
-      <c r="D43" s="24">
+      <c r="D43" s="23">
         <v>43770</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="23" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="24">
         <v>43781.587962963</v>
       </c>
     </row>
@@ -26612,18 +27111,18 @@
       <c r="A44" t="s">
         <v>5843</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23" t="s">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22" t="s">
         <v>5844</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="23">
         <v>43770</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="23" t="s">
+      <c r="E44" s="23"/>
+      <c r="F44" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="24">
         <v>43781.600833333301</v>
       </c>
     </row>
@@ -26631,18 +27130,18 @@
       <c r="A45" t="s">
         <v>5845</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23" t="s">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22" t="s">
         <v>5846</v>
       </c>
-      <c r="D45" s="24">
+      <c r="D45" s="23">
         <v>43770</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="23" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="24">
         <v>43781.6173263889</v>
       </c>
     </row>
@@ -26650,14 +27149,14 @@
       <c r="A46" t="s">
         <v>5847</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="23" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="22" t="s">
         <v>5762</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="24">
         <v>43707.477488425902</v>
       </c>
     </row>
@@ -26713,17 +27212,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="27" t="s">
         <v>676</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="27" t="s">
         <v>677</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -30284,12 +30783,12 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>5913</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>5914</v>
       </c>
     </row>
@@ -44253,33 +44752,33 @@
       <c r="A2" s="1" t="s">
         <v>5858</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>5859</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>5860</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="25">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="24">
         <v>43066.704039351898</v>
       </c>
     </row>
@@ -44287,33 +44786,33 @@
       <c r="A3" t="s">
         <v>5863</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>5864</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>5865</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="25">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="24">
         <v>43066.704039351898</v>
       </c>
     </row>
@@ -44321,33 +44820,33 @@
       <c r="A4" t="s">
         <v>5866</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>5867</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>5868</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="25">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="24">
         <v>43066.704039351898</v>
       </c>
     </row>
@@ -44355,33 +44854,33 @@
       <c r="A5" t="s">
         <v>5869</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>5870</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>5871</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="25">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="24">
         <v>43567.720972222203</v>
       </c>
     </row>
@@ -44389,33 +44888,33 @@
       <c r="A6" t="s">
         <v>5872</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>5873</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>5874</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="25">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="24">
         <v>43066.704050925902</v>
       </c>
     </row>
@@ -44423,33 +44922,33 @@
       <c r="A7" t="s">
         <v>5875</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>5876</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>5877</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H7" s="23" t="s">
+      <c r="H7" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="25">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="24">
         <v>43567.721678240698</v>
       </c>
     </row>
@@ -44457,33 +44956,33 @@
       <c r="A8" t="s">
         <v>5878</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>5879</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="22" t="s">
         <v>4998</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="25">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24">
         <v>43066.704050925902</v>
       </c>
     </row>
@@ -44491,33 +44990,33 @@
       <c r="A9" t="s">
         <v>5880</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>5881</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>5882</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="25">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="24">
         <v>43066.704062500001</v>
       </c>
     </row>
@@ -44525,33 +45024,33 @@
       <c r="A10" s="1" t="s">
         <v>5883</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>5884</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
         <v>5885</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="25">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="24">
         <v>43066.704062500001</v>
       </c>
     </row>
@@ -44559,37 +45058,37 @@
       <c r="A11" t="s">
         <v>5886</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>5851</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>5887</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>80</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>6</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="24">
         <v>43066.704062500001</v>
       </c>
     </row>
@@ -44597,37 +45096,37 @@
       <c r="A12" t="s">
         <v>5888</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>5889</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>5890</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J12" s="26">
+      <c r="J12" s="25">
         <v>8</v>
       </c>
-      <c r="K12" s="26">
+      <c r="K12" s="25">
         <v>1</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="24">
         <v>43066.704074074099</v>
       </c>
     </row>
@@ -44635,33 +45134,33 @@
       <c r="A13" t="s">
         <v>5891</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>5892</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>5893</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="22" t="s">
         <v>5861</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="25">
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="24">
         <v>43243.514513888898</v>
       </c>
     </row>
@@ -44669,33 +45168,33 @@
       <c r="A14" s="1" t="s">
         <v>5894</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>5895</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>5896</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>5862</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="25">
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="24">
         <v>43066.704074074099</v>
       </c>
     </row>
@@ -44769,7 +45268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9F954A-93D4-468D-A44D-EB9DC6A1A107}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -44808,67 +45307,67 @@
       <c r="A2" t="s">
         <v>5899</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>5900</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>5901</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>5240</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="22" t="s">
         <v>5902</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>5903</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5904</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>5905</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>5239</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>5240</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="22" t="s">
         <v>5241</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>5906</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5907</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>5908</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>5909</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>5910</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22" t="s">
         <v>5911</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>5912</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -44913,26 +45412,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>2441</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>2940</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2442</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>2941</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>2443</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>2942</v>
       </c>
     </row>
